--- a/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
+++ b/tabular/eve/parvovirinae/epv-proto-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/parvovirinae/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/paleovirology/Parvovirus-GLUE-EVE/tabular/eve/parvovirinae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4983FD-3C5A-0F44-A8EF-EDD31E633645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFE9990-8BB7-1446-8827-D6D0AC26E302}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4660" yWindow="1720" windowWidth="46540" windowHeight="26640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FINALISED" sheetId="1" r:id="rId1"/>
@@ -4744,7 +4744,8 @@
   <dimension ref="A1:AF128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A129" sqref="A129:XFD129"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AF1" sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
